--- a/Q&A/Questions.xlsx
+++ b/Q&A/Questions.xlsx
@@ -4,16 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
-    <sheet name="ML Algos" sheetId="2" r:id="rId2"/>
-    <sheet name="Probability" sheetId="3" r:id="rId3"/>
-    <sheet name="Common" sheetId="6" r:id="rId4"/>
-    <sheet name="Deep Learning" sheetId="7" r:id="rId5"/>
-    <sheet name="Time series" sheetId="8" r:id="rId6"/>
-    <sheet name="NLP" sheetId="9" r:id="rId7"/>
+    <sheet name="Python" sheetId="12" r:id="rId1"/>
+    <sheet name="Data Structures" sheetId="13" r:id="rId2"/>
+    <sheet name="SQL" sheetId="17" r:id="rId3"/>
+    <sheet name="Stats" sheetId="1" r:id="rId4"/>
+    <sheet name="Big Data" sheetId="14" r:id="rId5"/>
+    <sheet name="System Design" sheetId="15" r:id="rId6"/>
+    <sheet name="ML Algos" sheetId="2" r:id="rId7"/>
+    <sheet name="Probability" sheetId="3" r:id="rId8"/>
+    <sheet name="Common" sheetId="6" r:id="rId9"/>
+    <sheet name="Deep Learning" sheetId="7" r:id="rId10"/>
+    <sheet name="Time series" sheetId="8" r:id="rId11"/>
+    <sheet name="NLP" sheetId="9" r:id="rId12"/>
+    <sheet name="Transformer Architecture" sheetId="11" r:id="rId13"/>
+    <sheet name="Generative AI" sheetId="10" r:id="rId14"/>
+    <sheet name="MLOps" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Descriptive</t>
   </si>
@@ -148,6 +156,102 @@
   </si>
   <si>
     <t>Embedding layer</t>
+  </si>
+  <si>
+    <t>Different types of t-tests</t>
+  </si>
+  <si>
+    <t>conditional probability</t>
+  </si>
+  <si>
+    <t>boosting trees</t>
+  </si>
+  <si>
+    <t>gradient boosting</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmeans, Dbscan, Hiearchial </t>
+  </si>
+  <si>
+    <t>decorator &amp; generator</t>
+  </si>
+  <si>
+    <t>two pointer &amp; sliding window</t>
+  </si>
+  <si>
+    <t>problem Solving</t>
+  </si>
+  <si>
+    <t>Pyspark</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Hash Map</t>
+  </si>
+  <si>
+    <t>Core Data Structures</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>DataFrames</t>
+  </si>
+  <si>
+    <t>Parallelism in pyspark</t>
+  </si>
+  <si>
+    <t>use cases in pyspark</t>
+  </si>
+  <si>
+    <t>Design recommendation system for ecommerce search</t>
+  </si>
+  <si>
+    <t>Design recommendation system for food platform search</t>
+  </si>
+  <si>
+    <t>Partition By</t>
+  </si>
+  <si>
+    <t>order By</t>
+  </si>
+  <si>
+    <t>joins</t>
+  </si>
+  <si>
+    <t>ACF, PCF</t>
   </si>
 </sst>
 </file>
@@ -183,8 +287,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +572,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,20 +884,98 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -552,30 +997,53 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
@@ -618,16 +1086,21 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -694,76 +1167,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>